--- a/src/main/resources/reports/monthly/Standards Compliance Monthly Report - 2023-11-18.xlsx
+++ b/src/main/resources/reports/monthly/Standards Compliance Monthly Report - 2023-11-18.xlsx
@@ -1698,7 +1698,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1708,6 +1753,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1743,64 +1797,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1808,12 +1814,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2573,8 +2573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2587,12 +2587,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -2609,12 +2609,12 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="127" t="s">
         <v>154</v>
       </c>
       <c r="B14" s="128"/>
       <c r="C14" s="128"/>
-      <c r="D14" s="114"/>
+      <c r="D14" s="129"/>
       <c r="E14" s="100"/>
     </row>
     <row r="15" spans="1:13" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2854,81 +2854,81 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A50" s="118" t="s">
+      <c r="A50" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="119"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="119"/>
-      <c r="L50" s="119"/>
-      <c r="M50" s="120"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="137"/>
+      <c r="K50" s="137"/>
+      <c r="L50" s="137"/>
+      <c r="M50" s="138"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A51" s="121"/>
-      <c r="B51" s="122"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122"/>
-      <c r="L51" s="122"/>
-      <c r="M51" s="123"/>
+      <c r="A51" s="139"/>
+      <c r="B51" s="140"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="140"/>
+      <c r="F51" s="140"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="140"/>
+      <c r="I51" s="140"/>
+      <c r="J51" s="140"/>
+      <c r="K51" s="140"/>
+      <c r="L51" s="140"/>
+      <c r="M51" s="141"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A52" s="121"/>
-      <c r="B52" s="122"/>
-      <c r="C52" s="122"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="122"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="122"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="122"/>
-      <c r="K52" s="122"/>
-      <c r="L52" s="122"/>
-      <c r="M52" s="123"/>
+      <c r="A52" s="139"/>
+      <c r="B52" s="140"/>
+      <c r="C52" s="140"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="140"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="140"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="140"/>
+      <c r="K52" s="140"/>
+      <c r="L52" s="140"/>
+      <c r="M52" s="141"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A53" s="121"/>
-      <c r="B53" s="122"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="122"/>
-      <c r="F53" s="122"/>
-      <c r="G53" s="122"/>
-      <c r="H53" s="122"/>
-      <c r="I53" s="122"/>
-      <c r="J53" s="122"/>
-      <c r="K53" s="122"/>
-      <c r="L53" s="122"/>
-      <c r="M53" s="123"/>
+      <c r="A53" s="139"/>
+      <c r="B53" s="140"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="140"/>
+      <c r="G53" s="140"/>
+      <c r="H53" s="140"/>
+      <c r="I53" s="140"/>
+      <c r="J53" s="140"/>
+      <c r="K53" s="140"/>
+      <c r="L53" s="140"/>
+      <c r="M53" s="141"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A54" s="124"/>
-      <c r="B54" s="125"/>
-      <c r="C54" s="125"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="125"/>
-      <c r="J54" s="125"/>
-      <c r="K54" s="125"/>
-      <c r="L54" s="125"/>
-      <c r="M54" s="126"/>
+      <c r="A54" s="142"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="143"/>
+      <c r="E54" s="143"/>
+      <c r="F54" s="143"/>
+      <c r="G54" s="143"/>
+      <c r="H54" s="143"/>
+      <c r="I54" s="143"/>
+      <c r="J54" s="143"/>
+      <c r="K54" s="143"/>
+      <c r="L54" s="143"/>
+      <c r="M54" s="144"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="87"/>
@@ -3181,36 +3181,36 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="118" t="s">
+      <c r="A86" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="119"/>
-      <c r="C86" s="119"/>
-      <c r="D86" s="120"/>
+      <c r="B86" s="137"/>
+      <c r="C86" s="137"/>
+      <c r="D86" s="138"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="121"/>
-      <c r="B87" s="122"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="123"/>
+      <c r="A87" s="139"/>
+      <c r="B87" s="140"/>
+      <c r="C87" s="140"/>
+      <c r="D87" s="141"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="121"/>
-      <c r="B88" s="122"/>
-      <c r="C88" s="122"/>
-      <c r="D88" s="123"/>
+      <c r="A88" s="139"/>
+      <c r="B88" s="140"/>
+      <c r="C88" s="140"/>
+      <c r="D88" s="141"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="121"/>
-      <c r="B89" s="122"/>
-      <c r="C89" s="122"/>
-      <c r="D89" s="123"/>
+      <c r="A89" s="139"/>
+      <c r="B89" s="140"/>
+      <c r="C89" s="140"/>
+      <c r="D89" s="141"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="124"/>
-      <c r="B90" s="125"/>
-      <c r="C90" s="125"/>
-      <c r="D90" s="126"/>
+      <c r="A90" s="142"/>
+      <c r="B90" s="143"/>
+      <c r="C90" s="143"/>
+      <c r="D90" s="144"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="87"/>
@@ -3225,11 +3225,11 @@
       <c r="D93" s="26"/>
     </row>
     <row r="94" spans="1:4" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="113" t="s">
+      <c r="A94" s="127" t="s">
         <v>149</v>
       </c>
       <c r="B94" s="128"/>
-      <c r="C94" s="114"/>
+      <c r="C94" s="129"/>
       <c r="D94" s="88"/>
     </row>
     <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3366,36 +3366,36 @@
       <c r="A114" s="45"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="117" t="s">
+      <c r="A115" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="B115" s="117"/>
-      <c r="C115" s="117"/>
-      <c r="D115" s="117"/>
+      <c r="B115" s="135"/>
+      <c r="C115" s="135"/>
+      <c r="D115" s="135"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="117"/>
-      <c r="B116" s="117"/>
-      <c r="C116" s="117"/>
-      <c r="D116" s="117"/>
+      <c r="A116" s="135"/>
+      <c r="B116" s="135"/>
+      <c r="C116" s="135"/>
+      <c r="D116" s="135"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="117"/>
-      <c r="B117" s="117"/>
-      <c r="C117" s="117"/>
-      <c r="D117" s="117"/>
+      <c r="A117" s="135"/>
+      <c r="B117" s="135"/>
+      <c r="C117" s="135"/>
+      <c r="D117" s="135"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="117"/>
-      <c r="B118" s="117"/>
-      <c r="C118" s="117"/>
-      <c r="D118" s="117"/>
+      <c r="A118" s="135"/>
+      <c r="B118" s="135"/>
+      <c r="C118" s="135"/>
+      <c r="D118" s="135"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="117"/>
-      <c r="B119" s="117"/>
-      <c r="C119" s="117"/>
-      <c r="D119" s="117"/>
+      <c r="A119" s="135"/>
+      <c r="B119" s="135"/>
+      <c r="C119" s="135"/>
+      <c r="D119" s="135"/>
     </row>
     <row r="121" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
@@ -3482,36 +3482,36 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="117" t="s">
+      <c r="A138" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="B138" s="117"/>
-      <c r="C138" s="117"/>
-      <c r="D138" s="117"/>
+      <c r="B138" s="135"/>
+      <c r="C138" s="135"/>
+      <c r="D138" s="135"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="117"/>
-      <c r="B139" s="117"/>
-      <c r="C139" s="117"/>
-      <c r="D139" s="117"/>
+      <c r="A139" s="135"/>
+      <c r="B139" s="135"/>
+      <c r="C139" s="135"/>
+      <c r="D139" s="135"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="117"/>
-      <c r="B140" s="117"/>
-      <c r="C140" s="117"/>
-      <c r="D140" s="117"/>
+      <c r="A140" s="135"/>
+      <c r="B140" s="135"/>
+      <c r="C140" s="135"/>
+      <c r="D140" s="135"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="117"/>
-      <c r="B141" s="117"/>
-      <c r="C141" s="117"/>
-      <c r="D141" s="117"/>
+      <c r="A141" s="135"/>
+      <c r="B141" s="135"/>
+      <c r="C141" s="135"/>
+      <c r="D141" s="135"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="117"/>
-      <c r="B142" s="117"/>
-      <c r="C142" s="117"/>
-      <c r="D142" s="117"/>
+      <c r="A142" s="135"/>
+      <c r="B142" s="135"/>
+      <c r="C142" s="135"/>
+      <c r="D142" s="135"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="40"/>
@@ -3531,10 +3531,10 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="113" t="s">
+      <c r="A147" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="B147" s="114"/>
+      <c r="B147" s="129"/>
     </row>
     <row r="148" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="42" t="s">
@@ -3626,10 +3626,10 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="113" t="s">
+      <c r="A167" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="B167" s="114"/>
+      <c r="B167" s="129"/>
     </row>
     <row r="168" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="42" t="s">
@@ -3737,16 +3737,16 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A188" s="115" t="s">
+      <c r="A188" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="B188" s="115" t="s">
+      <c r="B188" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="C188" s="115" t="s">
+      <c r="C188" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="D188" s="115" t="s">
+      <c r="D188" s="130" t="s">
         <v>87</v>
       </c>
       <c r="E188" s="54" t="s">
@@ -3754,134 +3754,134 @@
       </c>
     </row>
     <row r="189" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A189" s="116"/>
-      <c r="B189" s="116"/>
-      <c r="C189" s="116"/>
-      <c r="D189" s="116"/>
+      <c r="A189" s="131"/>
+      <c r="B189" s="131"/>
+      <c r="C189" s="131"/>
+      <c r="D189" s="131"/>
       <c r="E189" s="55" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="129" t="s">
+      <c r="A190" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="B190" s="131" t="s">
+      <c r="B190" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="C190" s="115">
+      <c r="C190" s="130">
         <v>2</v>
       </c>
-      <c r="D190" s="115"/>
-      <c r="E190" s="115"/>
+      <c r="D190" s="130"/>
+      <c r="E190" s="130"/>
     </row>
     <row r="191" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="130"/>
-      <c r="B191" s="132"/>
-      <c r="C191" s="116"/>
-      <c r="D191" s="116"/>
-      <c r="E191" s="116"/>
+      <c r="A191" s="124"/>
+      <c r="B191" s="126"/>
+      <c r="C191" s="131"/>
+      <c r="D191" s="131"/>
+      <c r="E191" s="131"/>
     </row>
     <row r="192" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="129" t="s">
+      <c r="A192" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="B192" s="131" t="s">
+      <c r="B192" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="C192" s="115">
+      <c r="C192" s="130">
         <v>2</v>
       </c>
-      <c r="D192" s="115"/>
-      <c r="E192" s="115"/>
+      <c r="D192" s="130"/>
+      <c r="E192" s="130"/>
     </row>
     <row r="193" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A193" s="130"/>
-      <c r="B193" s="132"/>
-      <c r="C193" s="116"/>
-      <c r="D193" s="116"/>
-      <c r="E193" s="116"/>
+      <c r="A193" s="124"/>
+      <c r="B193" s="126"/>
+      <c r="C193" s="131"/>
+      <c r="D193" s="131"/>
+      <c r="E193" s="131"/>
     </row>
     <row r="194" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="129" t="s">
+      <c r="A194" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="B194" s="131" t="s">
+      <c r="B194" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="C194" s="115">
+      <c r="C194" s="130">
         <v>2</v>
       </c>
-      <c r="D194" s="115"/>
-      <c r="E194" s="115"/>
+      <c r="D194" s="130"/>
+      <c r="E194" s="130"/>
     </row>
     <row r="195" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A195" s="130"/>
-      <c r="B195" s="132"/>
-      <c r="C195" s="116"/>
-      <c r="D195" s="116"/>
-      <c r="E195" s="116"/>
+      <c r="A195" s="124"/>
+      <c r="B195" s="126"/>
+      <c r="C195" s="131"/>
+      <c r="D195" s="131"/>
+      <c r="E195" s="131"/>
     </row>
     <row r="196" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="129" t="s">
+      <c r="A196" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="B196" s="131" t="s">
+      <c r="B196" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="C196" s="115">
+      <c r="C196" s="130">
         <v>1</v>
       </c>
-      <c r="D196" s="115"/>
-      <c r="E196" s="115"/>
+      <c r="D196" s="130"/>
+      <c r="E196" s="130"/>
     </row>
     <row r="197" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="130"/>
-      <c r="B197" s="132"/>
-      <c r="C197" s="116"/>
-      <c r="D197" s="116"/>
-      <c r="E197" s="116"/>
+      <c r="A197" s="124"/>
+      <c r="B197" s="126"/>
+      <c r="C197" s="131"/>
+      <c r="D197" s="131"/>
+      <c r="E197" s="131"/>
     </row>
     <row r="198" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="129" t="s">
+      <c r="A198" s="123" t="s">
         <v>98</v>
       </c>
-      <c r="B198" s="131" t="s">
+      <c r="B198" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="C198" s="115">
+      <c r="C198" s="130">
         <v>3</v>
       </c>
-      <c r="D198" s="115"/>
-      <c r="E198" s="115"/>
+      <c r="D198" s="130"/>
+      <c r="E198" s="130"/>
     </row>
     <row r="199" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="130"/>
-      <c r="B199" s="132"/>
-      <c r="C199" s="116"/>
-      <c r="D199" s="116"/>
-      <c r="E199" s="116"/>
+      <c r="A199" s="124"/>
+      <c r="B199" s="126"/>
+      <c r="C199" s="131"/>
+      <c r="D199" s="131"/>
+      <c r="E199" s="131"/>
     </row>
     <row r="200" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A200" s="133" t="s">
+      <c r="A200" s="132" t="s">
         <v>100</v>
       </c>
-      <c r="B200" s="134"/>
-      <c r="C200" s="134"/>
-      <c r="D200" s="134"/>
-      <c r="E200" s="135"/>
+      <c r="B200" s="133"/>
+      <c r="C200" s="133"/>
+      <c r="D200" s="133"/>
+      <c r="E200" s="134"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A201" s="115" t="s">
+      <c r="A201" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="B201" s="115" t="s">
+      <c r="B201" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="C201" s="115" t="s">
+      <c r="C201" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="D201" s="115" t="s">
+      <c r="D201" s="130" t="s">
         <v>87</v>
       </c>
       <c r="E201" s="59" t="s">
@@ -3889,146 +3889,146 @@
       </c>
     </row>
     <row r="202" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="116"/>
-      <c r="B202" s="116"/>
-      <c r="C202" s="116"/>
-      <c r="D202" s="116"/>
+      <c r="A202" s="131"/>
+      <c r="B202" s="131"/>
+      <c r="C202" s="131"/>
+      <c r="D202" s="131"/>
       <c r="E202" s="55" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="129" t="s">
+      <c r="A203" s="123" t="s">
         <v>101</v>
       </c>
       <c r="B203" s="60"/>
       <c r="C203" s="60"/>
-      <c r="D203" s="129"/>
-      <c r="E203" s="129"/>
+      <c r="D203" s="123"/>
+      <c r="E203" s="123"/>
     </row>
     <row r="204" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="130"/>
+      <c r="A204" s="124"/>
       <c r="B204" s="43" t="s">
         <v>102</v>
       </c>
       <c r="C204" s="52">
         <v>42</v>
       </c>
-      <c r="D204" s="130"/>
-      <c r="E204" s="130"/>
+      <c r="D204" s="124"/>
+      <c r="E204" s="124"/>
     </row>
     <row r="205" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="129" t="s">
+      <c r="A205" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="B205" s="129" t="s">
+      <c r="B205" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C205" s="131">
+      <c r="C205" s="125">
         <v>4</v>
       </c>
-      <c r="D205" s="131"/>
-      <c r="E205" s="129"/>
+      <c r="D205" s="125"/>
+      <c r="E205" s="123"/>
     </row>
     <row r="206" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="130"/>
-      <c r="B206" s="130"/>
-      <c r="C206" s="132"/>
-      <c r="D206" s="132"/>
-      <c r="E206" s="130"/>
+      <c r="A206" s="124"/>
+      <c r="B206" s="124"/>
+      <c r="C206" s="126"/>
+      <c r="D206" s="126"/>
+      <c r="E206" s="124"/>
     </row>
     <row r="207" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="129" t="s">
+      <c r="A207" s="123" t="s">
         <v>105</v>
       </c>
-      <c r="B207" s="129" t="s">
+      <c r="B207" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="C207" s="131">
+      <c r="C207" s="125">
         <v>5</v>
       </c>
-      <c r="D207" s="131"/>
-      <c r="E207" s="129"/>
+      <c r="D207" s="125"/>
+      <c r="E207" s="123"/>
     </row>
     <row r="208" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="130"/>
-      <c r="B208" s="130"/>
-      <c r="C208" s="132"/>
-      <c r="D208" s="132"/>
-      <c r="E208" s="130"/>
+      <c r="A208" s="124"/>
+      <c r="B208" s="124"/>
+      <c r="C208" s="126"/>
+      <c r="D208" s="126"/>
+      <c r="E208" s="124"/>
     </row>
     <row r="209" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="129" t="s">
+      <c r="A209" s="123" t="s">
         <v>107</v>
       </c>
-      <c r="B209" s="129" t="s">
+      <c r="B209" s="123" t="s">
         <v>108</v>
       </c>
-      <c r="C209" s="131">
+      <c r="C209" s="125">
         <v>2</v>
       </c>
-      <c r="D209" s="131"/>
-      <c r="E209" s="129"/>
+      <c r="D209" s="125"/>
+      <c r="E209" s="123"/>
     </row>
     <row r="210" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A210" s="130"/>
-      <c r="B210" s="130"/>
-      <c r="C210" s="132"/>
-      <c r="D210" s="132"/>
-      <c r="E210" s="130"/>
+      <c r="A210" s="124"/>
+      <c r="B210" s="124"/>
+      <c r="C210" s="126"/>
+      <c r="D210" s="126"/>
+      <c r="E210" s="124"/>
     </row>
     <row r="211" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="129" t="s">
+      <c r="A211" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="B211" s="129" t="s">
+      <c r="B211" s="123" t="s">
         <v>110</v>
       </c>
       <c r="C211" s="58"/>
       <c r="D211" s="58"/>
-      <c r="E211" s="129"/>
+      <c r="E211" s="123"/>
     </row>
     <row r="212" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A212" s="130"/>
-      <c r="B212" s="130"/>
+      <c r="A212" s="124"/>
+      <c r="B212" s="124"/>
       <c r="C212" s="61">
         <v>1</v>
       </c>
       <c r="D212" s="61">
         <v>1</v>
       </c>
-      <c r="E212" s="130"/>
+      <c r="E212" s="124"/>
     </row>
     <row r="213" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="129" t="s">
+      <c r="A213" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="B213" s="129" t="s">
+      <c r="B213" s="123" t="s">
         <v>112</v>
       </c>
       <c r="C213" s="58"/>
       <c r="D213" s="58"/>
-      <c r="E213" s="129"/>
+      <c r="E213" s="123"/>
     </row>
     <row r="214" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="130"/>
-      <c r="B214" s="130"/>
+      <c r="A214" s="124"/>
+      <c r="B214" s="124"/>
       <c r="C214" s="61">
         <v>1</v>
       </c>
       <c r="D214" s="61">
         <v>1</v>
       </c>
-      <c r="E214" s="130"/>
+      <c r="E214" s="124"/>
     </row>
     <row r="215" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A215" s="113" t="s">
+      <c r="A215" s="127" t="s">
         <v>113</v>
       </c>
       <c r="B215" s="128"/>
       <c r="C215" s="128"/>
       <c r="D215" s="128"/>
-      <c r="E215" s="114"/>
+      <c r="E215" s="129"/>
     </row>
     <row r="216" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="57" t="s">
@@ -4046,185 +4046,185 @@
       <c r="E216" s="53"/>
     </row>
     <row r="217" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="129" t="s">
+      <c r="A217" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="B217" s="131" t="s">
+      <c r="B217" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="C217" s="136">
+      <c r="C217" s="116">
         <v>8</v>
       </c>
-      <c r="D217" s="136"/>
-      <c r="E217" s="136"/>
+      <c r="D217" s="116"/>
+      <c r="E217" s="116"/>
     </row>
     <row r="218" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="130"/>
-      <c r="B218" s="132"/>
-      <c r="C218" s="137"/>
-      <c r="D218" s="137"/>
-      <c r="E218" s="137"/>
+      <c r="A218" s="124"/>
+      <c r="B218" s="126"/>
+      <c r="C218" s="118"/>
+      <c r="D218" s="118"/>
+      <c r="E218" s="118"/>
     </row>
     <row r="219" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="129" t="s">
+      <c r="A219" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="B219" s="131" t="s">
+      <c r="B219" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="C219" s="136">
+      <c r="C219" s="116">
         <v>5</v>
       </c>
-      <c r="D219" s="136"/>
-      <c r="E219" s="136"/>
+      <c r="D219" s="116"/>
+      <c r="E219" s="116"/>
     </row>
     <row r="220" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="130"/>
-      <c r="B220" s="132"/>
-      <c r="C220" s="137"/>
-      <c r="D220" s="137"/>
-      <c r="E220" s="137"/>
+      <c r="A220" s="124"/>
+      <c r="B220" s="126"/>
+      <c r="C220" s="118"/>
+      <c r="D220" s="118"/>
+      <c r="E220" s="118"/>
     </row>
     <row r="221" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="129" t="s">
+      <c r="A221" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="B221" s="131" t="s">
+      <c r="B221" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="C221" s="136">
+      <c r="C221" s="116">
         <v>3</v>
       </c>
-      <c r="D221" s="136"/>
-      <c r="E221" s="136"/>
+      <c r="D221" s="116"/>
+      <c r="E221" s="116"/>
     </row>
     <row r="222" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="130"/>
-      <c r="B222" s="132"/>
-      <c r="C222" s="137"/>
-      <c r="D222" s="137"/>
-      <c r="E222" s="137"/>
+      <c r="A222" s="124"/>
+      <c r="B222" s="126"/>
+      <c r="C222" s="118"/>
+      <c r="D222" s="118"/>
+      <c r="E222" s="118"/>
     </row>
     <row r="223" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="129" t="s">
+      <c r="A223" s="123" t="s">
         <v>119</v>
       </c>
-      <c r="B223" s="131" t="s">
+      <c r="B223" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="C223" s="136">
+      <c r="C223" s="116">
         <v>2</v>
       </c>
-      <c r="D223" s="136"/>
-      <c r="E223" s="136"/>
+      <c r="D223" s="116"/>
+      <c r="E223" s="116"/>
     </row>
     <row r="224" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="130"/>
-      <c r="B224" s="132"/>
-      <c r="C224" s="137"/>
-      <c r="D224" s="137"/>
-      <c r="E224" s="137"/>
+      <c r="A224" s="124"/>
+      <c r="B224" s="126"/>
+      <c r="C224" s="118"/>
+      <c r="D224" s="118"/>
+      <c r="E224" s="118"/>
     </row>
     <row r="225" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="129" t="s">
+      <c r="A225" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="B225" s="131" t="s">
+      <c r="B225" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="C225" s="136">
+      <c r="C225" s="116">
         <v>6</v>
       </c>
-      <c r="D225" s="136"/>
-      <c r="E225" s="136"/>
+      <c r="D225" s="116"/>
+      <c r="E225" s="116"/>
     </row>
     <row r="226" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="130"/>
-      <c r="B226" s="132"/>
-      <c r="C226" s="137"/>
-      <c r="D226" s="137"/>
-      <c r="E226" s="137"/>
+      <c r="A226" s="124"/>
+      <c r="B226" s="126"/>
+      <c r="C226" s="118"/>
+      <c r="D226" s="118"/>
+      <c r="E226" s="118"/>
     </row>
     <row r="227" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="129" t="s">
+      <c r="A227" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="B227" s="131" t="s">
+      <c r="B227" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="C227" s="136">
+      <c r="C227" s="116">
         <v>3</v>
       </c>
-      <c r="D227" s="136"/>
-      <c r="E227" s="136"/>
+      <c r="D227" s="116"/>
+      <c r="E227" s="116"/>
     </row>
     <row r="228" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A228" s="130"/>
-      <c r="B228" s="132"/>
-      <c r="C228" s="137"/>
-      <c r="D228" s="137"/>
-      <c r="E228" s="137"/>
+      <c r="A228" s="124"/>
+      <c r="B228" s="126"/>
+      <c r="C228" s="118"/>
+      <c r="D228" s="118"/>
+      <c r="E228" s="118"/>
     </row>
     <row r="229" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="129" t="s">
+      <c r="A229" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="B229" s="131" t="s">
+      <c r="B229" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="C229" s="136">
+      <c r="C229" s="116">
         <v>3</v>
       </c>
-      <c r="D229" s="136"/>
-      <c r="E229" s="136"/>
+      <c r="D229" s="116"/>
+      <c r="E229" s="116"/>
     </row>
     <row r="230" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="130"/>
-      <c r="B230" s="132"/>
-      <c r="C230" s="137"/>
-      <c r="D230" s="137"/>
-      <c r="E230" s="137"/>
+      <c r="A230" s="124"/>
+      <c r="B230" s="126"/>
+      <c r="C230" s="118"/>
+      <c r="D230" s="118"/>
+      <c r="E230" s="118"/>
     </row>
     <row r="231" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="129" t="s">
+      <c r="A231" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="B231" s="131" t="s">
+      <c r="B231" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="C231" s="136">
+      <c r="C231" s="116">
         <v>3</v>
       </c>
-      <c r="D231" s="136"/>
-      <c r="E231" s="136"/>
+      <c r="D231" s="116"/>
+      <c r="E231" s="116"/>
     </row>
     <row r="232" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="130"/>
-      <c r="B232" s="132"/>
-      <c r="C232" s="137"/>
-      <c r="D232" s="137"/>
-      <c r="E232" s="137"/>
+      <c r="A232" s="124"/>
+      <c r="B232" s="126"/>
+      <c r="C232" s="118"/>
+      <c r="D232" s="118"/>
+      <c r="E232" s="118"/>
     </row>
     <row r="233" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="113" t="s">
+      <c r="A233" s="127" t="s">
         <v>124</v>
       </c>
       <c r="B233" s="128"/>
       <c r="C233" s="128"/>
       <c r="D233" s="128"/>
-      <c r="E233" s="114"/>
+      <c r="E233" s="129"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A234" s="115" t="s">
+      <c r="A234" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="B234" s="115" t="s">
+      <c r="B234" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="C234" s="115" t="s">
+      <c r="C234" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="D234" s="115" t="s">
+      <c r="D234" s="130" t="s">
         <v>87</v>
       </c>
       <c r="E234" s="59" t="s">
@@ -4232,253 +4232,253 @@
       </c>
     </row>
     <row r="235" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="116"/>
-      <c r="B235" s="116"/>
-      <c r="C235" s="116"/>
-      <c r="D235" s="116"/>
+      <c r="A235" s="131"/>
+      <c r="B235" s="131"/>
+      <c r="C235" s="131"/>
+      <c r="D235" s="131"/>
       <c r="E235" s="55" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="129" t="s">
+      <c r="A236" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="B236" s="131" t="s">
+      <c r="B236" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="C236" s="136">
+      <c r="C236" s="116">
         <v>2</v>
       </c>
-      <c r="D236" s="136"/>
-      <c r="E236" s="136"/>
+      <c r="D236" s="116"/>
+      <c r="E236" s="116"/>
     </row>
     <row r="237" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A237" s="130"/>
-      <c r="B237" s="132"/>
-      <c r="C237" s="137"/>
-      <c r="D237" s="137"/>
-      <c r="E237" s="137"/>
+      <c r="A237" s="124"/>
+      <c r="B237" s="126"/>
+      <c r="C237" s="118"/>
+      <c r="D237" s="118"/>
+      <c r="E237" s="118"/>
     </row>
     <row r="238" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="129" t="s">
+      <c r="A238" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="B238" s="131" t="s">
+      <c r="B238" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="C238" s="136">
+      <c r="C238" s="116">
         <v>3</v>
       </c>
-      <c r="D238" s="136"/>
-      <c r="E238" s="136"/>
+      <c r="D238" s="116"/>
+      <c r="E238" s="116"/>
     </row>
     <row r="239" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="130"/>
-      <c r="B239" s="132"/>
-      <c r="C239" s="137"/>
-      <c r="D239" s="137"/>
-      <c r="E239" s="137"/>
+      <c r="A239" s="124"/>
+      <c r="B239" s="126"/>
+      <c r="C239" s="118"/>
+      <c r="D239" s="118"/>
+      <c r="E239" s="118"/>
     </row>
     <row r="240" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="129" t="s">
+      <c r="A240" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="B240" s="131" t="s">
+      <c r="B240" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="C240" s="136">
+      <c r="C240" s="116">
         <v>3</v>
       </c>
-      <c r="D240" s="136"/>
-      <c r="E240" s="136"/>
+      <c r="D240" s="116"/>
+      <c r="E240" s="116"/>
     </row>
     <row r="241" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A241" s="130"/>
-      <c r="B241" s="132"/>
-      <c r="C241" s="137"/>
-      <c r="D241" s="137"/>
-      <c r="E241" s="137"/>
+      <c r="A241" s="124"/>
+      <c r="B241" s="126"/>
+      <c r="C241" s="118"/>
+      <c r="D241" s="118"/>
+      <c r="E241" s="118"/>
     </row>
     <row r="242" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A242" s="129" t="s">
+      <c r="A242" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="B242" s="131" t="s">
+      <c r="B242" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="C242" s="136">
+      <c r="C242" s="116">
         <v>3</v>
       </c>
-      <c r="D242" s="136"/>
-      <c r="E242" s="136"/>
+      <c r="D242" s="116"/>
+      <c r="E242" s="116"/>
     </row>
     <row r="243" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A243" s="130"/>
-      <c r="B243" s="132"/>
-      <c r="C243" s="137"/>
-      <c r="D243" s="137"/>
-      <c r="E243" s="137"/>
+      <c r="A243" s="124"/>
+      <c r="B243" s="126"/>
+      <c r="C243" s="118"/>
+      <c r="D243" s="118"/>
+      <c r="E243" s="118"/>
     </row>
     <row r="244" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="129" t="s">
+      <c r="A244" s="123" t="s">
         <v>131</v>
       </c>
-      <c r="B244" s="131" t="s">
+      <c r="B244" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="C244" s="136">
+      <c r="C244" s="116">
         <v>2</v>
       </c>
-      <c r="D244" s="136"/>
-      <c r="E244" s="136"/>
+      <c r="D244" s="116"/>
+      <c r="E244" s="116"/>
     </row>
     <row r="245" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="130"/>
-      <c r="B245" s="132"/>
-      <c r="C245" s="137"/>
-      <c r="D245" s="137"/>
-      <c r="E245" s="137"/>
+      <c r="A245" s="124"/>
+      <c r="B245" s="126"/>
+      <c r="C245" s="118"/>
+      <c r="D245" s="118"/>
+      <c r="E245" s="118"/>
     </row>
     <row r="246" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="129" t="s">
+      <c r="A246" s="123" t="s">
         <v>132</v>
       </c>
-      <c r="B246" s="131" t="s">
+      <c r="B246" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="C246" s="136">
+      <c r="C246" s="116">
         <v>2</v>
       </c>
-      <c r="D246" s="136"/>
-      <c r="E246" s="136"/>
+      <c r="D246" s="116"/>
+      <c r="E246" s="116"/>
     </row>
     <row r="247" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="130"/>
-      <c r="B247" s="132"/>
-      <c r="C247" s="137"/>
-      <c r="D247" s="137"/>
-      <c r="E247" s="137"/>
+      <c r="A247" s="124"/>
+      <c r="B247" s="126"/>
+      <c r="C247" s="118"/>
+      <c r="D247" s="118"/>
+      <c r="E247" s="118"/>
     </row>
     <row r="248" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="129" t="s">
+      <c r="A248" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="B248" s="131" t="s">
+      <c r="B248" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="C248" s="136">
+      <c r="C248" s="116">
         <v>2</v>
       </c>
-      <c r="D248" s="136"/>
-      <c r="E248" s="136"/>
+      <c r="D248" s="116"/>
+      <c r="E248" s="116"/>
     </row>
     <row r="249" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="130"/>
-      <c r="B249" s="132"/>
-      <c r="C249" s="137"/>
-      <c r="D249" s="137"/>
-      <c r="E249" s="137"/>
+      <c r="A249" s="124"/>
+      <c r="B249" s="126"/>
+      <c r="C249" s="118"/>
+      <c r="D249" s="118"/>
+      <c r="E249" s="118"/>
     </row>
     <row r="250" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="129" t="s">
+      <c r="A250" s="123" t="s">
         <v>135</v>
       </c>
-      <c r="B250" s="131" t="s">
+      <c r="B250" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="C250" s="136">
+      <c r="C250" s="116">
         <v>3</v>
       </c>
-      <c r="D250" s="136"/>
-      <c r="E250" s="136"/>
+      <c r="D250" s="116"/>
+      <c r="E250" s="116"/>
     </row>
     <row r="251" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A251" s="130"/>
-      <c r="B251" s="132"/>
-      <c r="C251" s="137"/>
-      <c r="D251" s="137"/>
-      <c r="E251" s="137"/>
+      <c r="A251" s="124"/>
+      <c r="B251" s="126"/>
+      <c r="C251" s="118"/>
+      <c r="D251" s="118"/>
+      <c r="E251" s="118"/>
     </row>
     <row r="252" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="129" t="s">
+      <c r="A252" s="123" t="s">
         <v>136</v>
       </c>
-      <c r="B252" s="131" t="s">
+      <c r="B252" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="C252" s="136">
+      <c r="C252" s="116">
         <v>2</v>
       </c>
-      <c r="D252" s="136"/>
-      <c r="E252" s="136"/>
+      <c r="D252" s="116"/>
+      <c r="E252" s="116"/>
     </row>
     <row r="253" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A253" s="130"/>
-      <c r="B253" s="132"/>
-      <c r="C253" s="137"/>
-      <c r="D253" s="137"/>
-      <c r="E253" s="137"/>
+      <c r="A253" s="124"/>
+      <c r="B253" s="126"/>
+      <c r="C253" s="118"/>
+      <c r="D253" s="118"/>
+      <c r="E253" s="118"/>
     </row>
     <row r="254" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="129" t="s">
+      <c r="A254" s="123" t="s">
         <v>137</v>
       </c>
-      <c r="B254" s="131" t="s">
+      <c r="B254" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="C254" s="136">
+      <c r="C254" s="116">
         <v>3</v>
       </c>
-      <c r="D254" s="136"/>
-      <c r="E254" s="136"/>
+      <c r="D254" s="116"/>
+      <c r="E254" s="116"/>
     </row>
     <row r="255" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="130"/>
-      <c r="B255" s="132"/>
-      <c r="C255" s="137"/>
-      <c r="D255" s="137"/>
-      <c r="E255" s="137"/>
+      <c r="A255" s="124"/>
+      <c r="B255" s="126"/>
+      <c r="C255" s="118"/>
+      <c r="D255" s="118"/>
+      <c r="E255" s="118"/>
     </row>
     <row r="256" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="129" t="s">
+      <c r="A256" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="B256" s="131" t="s">
+      <c r="B256" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="C256" s="136">
+      <c r="C256" s="116">
         <v>3</v>
       </c>
-      <c r="D256" s="136"/>
-      <c r="E256" s="136"/>
+      <c r="D256" s="116"/>
+      <c r="E256" s="116"/>
     </row>
     <row r="257" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A257" s="130"/>
-      <c r="B257" s="132"/>
-      <c r="C257" s="137"/>
-      <c r="D257" s="137"/>
-      <c r="E257" s="137"/>
+      <c r="A257" s="124"/>
+      <c r="B257" s="126"/>
+      <c r="C257" s="118"/>
+      <c r="D257" s="118"/>
+      <c r="E257" s="118"/>
     </row>
     <row r="258" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="129" t="s">
+      <c r="A258" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="B258" s="131" t="s">
+      <c r="B258" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="C258" s="136">
+      <c r="C258" s="116">
         <v>3</v>
       </c>
-      <c r="D258" s="136"/>
-      <c r="E258" s="136"/>
+      <c r="D258" s="116"/>
+      <c r="E258" s="116"/>
     </row>
     <row r="259" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="130"/>
-      <c r="B259" s="132"/>
-      <c r="C259" s="137"/>
-      <c r="D259" s="137"/>
-      <c r="E259" s="137"/>
+      <c r="A259" s="124"/>
+      <c r="B259" s="126"/>
+      <c r="C259" s="118"/>
+      <c r="D259" s="118"/>
+      <c r="E259" s="118"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="65"/>
@@ -4492,31 +4492,31 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A264" s="138" t="s">
+      <c r="A264" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="B264" s="136" t="s">
+      <c r="B264" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="C264" s="136" t="s">
+      <c r="C264" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="D264" s="142" t="s">
+      <c r="D264" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="E264" s="143"/>
+      <c r="E264" s="120"/>
     </row>
     <row r="265" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A265" s="139"/>
-      <c r="B265" s="141"/>
-      <c r="C265" s="141"/>
-      <c r="D265" s="144"/>
-      <c r="E265" s="145"/>
+      <c r="A265" s="114"/>
+      <c r="B265" s="117"/>
+      <c r="C265" s="117"/>
+      <c r="D265" s="121"/>
+      <c r="E265" s="122"/>
     </row>
     <row r="266" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A266" s="140"/>
-      <c r="B266" s="137"/>
-      <c r="C266" s="137"/>
+      <c r="A266" s="115"/>
+      <c r="B266" s="118"/>
+      <c r="C266" s="118"/>
       <c r="D266" s="44" t="s">
         <v>145</v>
       </c>
@@ -4622,127 +4622,49 @@
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="C264:C266"/>
-    <mergeCell ref="D264:E265"/>
-    <mergeCell ref="A258:A259"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="D258:D259"/>
-    <mergeCell ref="E258:E259"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="E256:E257"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="A252:A253"/>
-    <mergeCell ref="B252:B253"/>
-    <mergeCell ref="C252:C253"/>
-    <mergeCell ref="D252:D253"/>
-    <mergeCell ref="E252:E253"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="E250:E251"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="D248:D249"/>
-    <mergeCell ref="E248:E249"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="B246:B247"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="D246:D247"/>
-    <mergeCell ref="E246:E247"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="E244:E245"/>
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="D242:D243"/>
-    <mergeCell ref="E242:E243"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="D240:D241"/>
-    <mergeCell ref="E240:E241"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="E238:E239"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="A233:E233"/>
-    <mergeCell ref="A234:A235"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="D234:D235"/>
-    <mergeCell ref="A231:A232"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="E231:E232"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="E229:E230"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="E227:E228"/>
-    <mergeCell ref="A225:A226"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="D225:D226"/>
-    <mergeCell ref="E225:E226"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="E223:E224"/>
-    <mergeCell ref="A221:A222"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="E219:E220"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="E213:E214"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="D209:D210"/>
-    <mergeCell ref="E209:E210"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="A138:D142"/>
+    <mergeCell ref="A50:M54"/>
+    <mergeCell ref="A86:D90"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A115:D119"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="D192:D193"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="E194:E195"/>
+    <mergeCell ref="A200:E200"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="E198:E199"/>
     <mergeCell ref="A207:A208"/>
     <mergeCell ref="B207:B208"/>
     <mergeCell ref="C207:C208"/>
@@ -4756,49 +4678,127 @@
     <mergeCell ref="C205:C206"/>
     <mergeCell ref="D205:D206"/>
     <mergeCell ref="E205:E206"/>
-    <mergeCell ref="A200:E200"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="A138:D142"/>
-    <mergeCell ref="A50:M54"/>
-    <mergeCell ref="A86:D90"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A115:D119"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="E209:E210"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="E219:E220"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="E223:E224"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="E227:E228"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="E225:E226"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="E231:E232"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="E229:E230"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="A233:E233"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="D234:D235"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="D240:D241"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="E238:E239"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="E244:E245"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="D242:D243"/>
+    <mergeCell ref="E242:E243"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="B248:B249"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="D248:D249"/>
+    <mergeCell ref="E248:E249"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="D246:D247"/>
+    <mergeCell ref="E246:E247"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="B252:B253"/>
+    <mergeCell ref="C252:C253"/>
+    <mergeCell ref="D252:D253"/>
+    <mergeCell ref="E252:E253"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="E250:E251"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="E256:E257"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="C264:C266"/>
+    <mergeCell ref="D264:E265"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="D258:D259"/>
+    <mergeCell ref="E258:E259"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4977,12 +4977,12 @@
       </c>
     </row>
     <row r="14" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="127" t="s">
         <v>154</v>
       </c>
       <c r="B14" s="128"/>
       <c r="C14" s="128"/>
-      <c r="D14" s="114"/>
+      <c r="D14" s="129"/>
     </row>
     <row r="15" spans="1:52" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="42" t="s">
@@ -5529,11 +5529,11 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="113" t="s">
+      <c r="A59" s="127" t="s">
         <v>190</v>
       </c>
       <c r="B59" s="128"/>
-      <c r="C59" s="114"/>
+      <c r="C59" s="129"/>
     </row>
     <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="71" t="s">
@@ -5591,12 +5591,12 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="113" t="s">
+      <c r="A68" s="127" t="s">
         <v>193</v>
       </c>
       <c r="B68" s="128"/>
       <c r="C68" s="128"/>
-      <c r="D68" s="114"/>
+      <c r="D68" s="129"/>
     </row>
     <row r="69" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="42" t="s">
@@ -5683,11 +5683,11 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="113" t="s">
+      <c r="A82" s="127" t="s">
         <v>149</v>
       </c>
       <c r="B82" s="128"/>
-      <c r="C82" s="114"/>
+      <c r="C82" s="129"/>
     </row>
     <row r="83" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="42" t="s">
@@ -5835,10 +5835,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="113" t="s">
+      <c r="A108" s="127" t="s">
         <v>211</v>
       </c>
-      <c r="B108" s="114"/>
+      <c r="B108" s="129"/>
     </row>
     <row r="109" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="64" t="s">
@@ -5931,10 +5931,10 @@
       </c>
     </row>
     <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="113" t="s">
+      <c r="A125" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="B125" s="114"/>
+      <c r="B125" s="129"/>
     </row>
     <row r="126" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="42" t="s">
@@ -6034,10 +6034,10 @@
       </c>
     </row>
     <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="113" t="s">
+      <c r="A145" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="B145" s="114"/>
+      <c r="B145" s="129"/>
     </row>
     <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="42" t="s">
@@ -6150,16 +6150,16 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A167" s="115" t="s">
+      <c r="A167" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="B167" s="115" t="s">
+      <c r="B167" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="C167" s="115" t="s">
+      <c r="C167" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="D167" s="115" t="s">
+      <c r="D167" s="130" t="s">
         <v>87</v>
       </c>
       <c r="E167" s="54" t="s">
@@ -6167,134 +6167,134 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="116"/>
-      <c r="B168" s="116"/>
-      <c r="C168" s="116"/>
-      <c r="D168" s="116"/>
+      <c r="A168" s="131"/>
+      <c r="B168" s="131"/>
+      <c r="C168" s="131"/>
+      <c r="D168" s="131"/>
       <c r="E168" s="55" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="129" t="s">
+      <c r="A169" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="B169" s="131" t="s">
+      <c r="B169" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="C169" s="115">
+      <c r="C169" s="130">
         <v>2</v>
       </c>
-      <c r="D169" s="115"/>
-      <c r="E169" s="115"/>
+      <c r="D169" s="130"/>
+      <c r="E169" s="130"/>
     </row>
     <row r="170" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="130"/>
-      <c r="B170" s="132"/>
-      <c r="C170" s="116"/>
-      <c r="D170" s="116"/>
-      <c r="E170" s="116"/>
+      <c r="A170" s="124"/>
+      <c r="B170" s="126"/>
+      <c r="C170" s="131"/>
+      <c r="D170" s="131"/>
+      <c r="E170" s="131"/>
     </row>
     <row r="171" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="129" t="s">
+      <c r="A171" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="B171" s="131" t="s">
+      <c r="B171" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="C171" s="115">
+      <c r="C171" s="130">
         <v>2</v>
       </c>
-      <c r="D171" s="115"/>
-      <c r="E171" s="115"/>
+      <c r="D171" s="130"/>
+      <c r="E171" s="130"/>
     </row>
     <row r="172" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="130"/>
-      <c r="B172" s="132"/>
-      <c r="C172" s="116"/>
-      <c r="D172" s="116"/>
-      <c r="E172" s="116"/>
+      <c r="A172" s="124"/>
+      <c r="B172" s="126"/>
+      <c r="C172" s="131"/>
+      <c r="D172" s="131"/>
+      <c r="E172" s="131"/>
     </row>
     <row r="173" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="129" t="s">
+      <c r="A173" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="B173" s="131" t="s">
+      <c r="B173" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="C173" s="115">
+      <c r="C173" s="130">
         <v>2</v>
       </c>
-      <c r="D173" s="115"/>
-      <c r="E173" s="115"/>
+      <c r="D173" s="130"/>
+      <c r="E173" s="130"/>
     </row>
     <row r="174" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="130"/>
-      <c r="B174" s="132"/>
-      <c r="C174" s="116"/>
-      <c r="D174" s="116"/>
-      <c r="E174" s="116"/>
+      <c r="A174" s="124"/>
+      <c r="B174" s="126"/>
+      <c r="C174" s="131"/>
+      <c r="D174" s="131"/>
+      <c r="E174" s="131"/>
     </row>
     <row r="175" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="129" t="s">
+      <c r="A175" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="B175" s="131" t="s">
+      <c r="B175" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="C175" s="115">
+      <c r="C175" s="130">
         <v>1</v>
       </c>
-      <c r="D175" s="115"/>
-      <c r="E175" s="115"/>
+      <c r="D175" s="130"/>
+      <c r="E175" s="130"/>
     </row>
     <row r="176" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="130"/>
-      <c r="B176" s="132"/>
-      <c r="C176" s="116"/>
-      <c r="D176" s="116"/>
-      <c r="E176" s="116"/>
+      <c r="A176" s="124"/>
+      <c r="B176" s="126"/>
+      <c r="C176" s="131"/>
+      <c r="D176" s="131"/>
+      <c r="E176" s="131"/>
     </row>
     <row r="177" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="129" t="s">
+      <c r="A177" s="123" t="s">
         <v>98</v>
       </c>
-      <c r="B177" s="131" t="s">
+      <c r="B177" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="C177" s="115">
+      <c r="C177" s="130">
         <v>3</v>
       </c>
-      <c r="D177" s="115"/>
-      <c r="E177" s="115"/>
+      <c r="D177" s="130"/>
+      <c r="E177" s="130"/>
     </row>
     <row r="178" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="130"/>
-      <c r="B178" s="132"/>
-      <c r="C178" s="116"/>
-      <c r="D178" s="116"/>
-      <c r="E178" s="116"/>
+      <c r="A178" s="124"/>
+      <c r="B178" s="126"/>
+      <c r="C178" s="131"/>
+      <c r="D178" s="131"/>
+      <c r="E178" s="131"/>
     </row>
     <row r="179" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="133" t="s">
+      <c r="A179" s="132" t="s">
         <v>100</v>
       </c>
-      <c r="B179" s="134"/>
-      <c r="C179" s="134"/>
-      <c r="D179" s="134"/>
-      <c r="E179" s="135"/>
+      <c r="B179" s="133"/>
+      <c r="C179" s="133"/>
+      <c r="D179" s="133"/>
+      <c r="E179" s="134"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A180" s="115" t="s">
+      <c r="A180" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="B180" s="115" t="s">
+      <c r="B180" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="C180" s="115" t="s">
+      <c r="C180" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="D180" s="115" t="s">
+      <c r="D180" s="130" t="s">
         <v>87</v>
       </c>
       <c r="E180" s="59" t="s">
@@ -6302,146 +6302,146 @@
       </c>
     </row>
     <row r="181" spans="1:5" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="116"/>
-      <c r="B181" s="116"/>
-      <c r="C181" s="116"/>
-      <c r="D181" s="116"/>
+      <c r="A181" s="131"/>
+      <c r="B181" s="131"/>
+      <c r="C181" s="131"/>
+      <c r="D181" s="131"/>
       <c r="E181" s="55" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A182" s="129" t="s">
+      <c r="A182" s="123" t="s">
         <v>101</v>
       </c>
       <c r="B182" s="60"/>
       <c r="C182" s="60"/>
-      <c r="D182" s="129"/>
-      <c r="E182" s="129"/>
+      <c r="D182" s="123"/>
+      <c r="E182" s="123"/>
     </row>
     <row r="183" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="130"/>
+      <c r="A183" s="124"/>
       <c r="B183" s="43" t="s">
         <v>102</v>
       </c>
       <c r="C183" s="52">
         <v>42</v>
       </c>
-      <c r="D183" s="130"/>
-      <c r="E183" s="130"/>
+      <c r="D183" s="124"/>
+      <c r="E183" s="124"/>
     </row>
     <row r="184" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="129" t="s">
+      <c r="A184" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="B184" s="129" t="s">
+      <c r="B184" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C184" s="131">
+      <c r="C184" s="125">
         <v>4</v>
       </c>
-      <c r="D184" s="131"/>
-      <c r="E184" s="129"/>
+      <c r="D184" s="125"/>
+      <c r="E184" s="123"/>
     </row>
     <row r="185" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A185" s="130"/>
-      <c r="B185" s="130"/>
-      <c r="C185" s="132"/>
-      <c r="D185" s="132"/>
-      <c r="E185" s="130"/>
+      <c r="A185" s="124"/>
+      <c r="B185" s="124"/>
+      <c r="C185" s="126"/>
+      <c r="D185" s="126"/>
+      <c r="E185" s="124"/>
     </row>
     <row r="186" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="129" t="s">
+      <c r="A186" s="123" t="s">
         <v>105</v>
       </c>
-      <c r="B186" s="129" t="s">
+      <c r="B186" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="C186" s="131">
+      <c r="C186" s="125">
         <v>5</v>
       </c>
-      <c r="D186" s="131"/>
-      <c r="E186" s="129"/>
+      <c r="D186" s="125"/>
+      <c r="E186" s="123"/>
     </row>
     <row r="187" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="130"/>
-      <c r="B187" s="130"/>
-      <c r="C187" s="132"/>
-      <c r="D187" s="132"/>
-      <c r="E187" s="130"/>
+      <c r="A187" s="124"/>
+      <c r="B187" s="124"/>
+      <c r="C187" s="126"/>
+      <c r="D187" s="126"/>
+      <c r="E187" s="124"/>
     </row>
     <row r="188" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="129" t="s">
+      <c r="A188" s="123" t="s">
         <v>107</v>
       </c>
-      <c r="B188" s="129" t="s">
+      <c r="B188" s="123" t="s">
         <v>108</v>
       </c>
-      <c r="C188" s="131">
+      <c r="C188" s="125">
         <v>2</v>
       </c>
-      <c r="D188" s="131"/>
-      <c r="E188" s="129"/>
+      <c r="D188" s="125"/>
+      <c r="E188" s="123"/>
     </row>
     <row r="189" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A189" s="130"/>
-      <c r="B189" s="130"/>
-      <c r="C189" s="132"/>
-      <c r="D189" s="132"/>
-      <c r="E189" s="130"/>
+      <c r="A189" s="124"/>
+      <c r="B189" s="124"/>
+      <c r="C189" s="126"/>
+      <c r="D189" s="126"/>
+      <c r="E189" s="124"/>
     </row>
     <row r="190" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="129" t="s">
+      <c r="A190" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="B190" s="129" t="s">
+      <c r="B190" s="123" t="s">
         <v>110</v>
       </c>
       <c r="C190" s="58"/>
       <c r="D190" s="58"/>
-      <c r="E190" s="129"/>
+      <c r="E190" s="123"/>
     </row>
     <row r="191" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="130"/>
-      <c r="B191" s="130"/>
+      <c r="A191" s="124"/>
+      <c r="B191" s="124"/>
       <c r="C191" s="61">
         <v>1</v>
       </c>
       <c r="D191" s="61">
         <v>1</v>
       </c>
-      <c r="E191" s="130"/>
+      <c r="E191" s="124"/>
     </row>
     <row r="192" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="129" t="s">
+      <c r="A192" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="B192" s="129" t="s">
+      <c r="B192" s="123" t="s">
         <v>112</v>
       </c>
       <c r="C192" s="58"/>
       <c r="D192" s="58"/>
-      <c r="E192" s="129"/>
+      <c r="E192" s="123"/>
     </row>
     <row r="193" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A193" s="130"/>
-      <c r="B193" s="130"/>
+      <c r="A193" s="124"/>
+      <c r="B193" s="124"/>
       <c r="C193" s="61">
         <v>1</v>
       </c>
       <c r="D193" s="61">
         <v>1</v>
       </c>
-      <c r="E193" s="130"/>
+      <c r="E193" s="124"/>
     </row>
     <row r="194" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A194" s="113" t="s">
+      <c r="A194" s="127" t="s">
         <v>113</v>
       </c>
       <c r="B194" s="128"/>
       <c r="C194" s="128"/>
       <c r="D194" s="128"/>
-      <c r="E194" s="114"/>
+      <c r="E194" s="129"/>
     </row>
     <row r="195" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="57" t="s">
@@ -6459,185 +6459,185 @@
       <c r="E195" s="53"/>
     </row>
     <row r="196" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="129" t="s">
+      <c r="A196" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="B196" s="131" t="s">
+      <c r="B196" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="C196" s="136">
+      <c r="C196" s="116">
         <v>8</v>
       </c>
-      <c r="D196" s="136"/>
-      <c r="E196" s="136"/>
+      <c r="D196" s="116"/>
+      <c r="E196" s="116"/>
     </row>
     <row r="197" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="130"/>
-      <c r="B197" s="132"/>
-      <c r="C197" s="137"/>
-      <c r="D197" s="137"/>
-      <c r="E197" s="137"/>
+      <c r="A197" s="124"/>
+      <c r="B197" s="126"/>
+      <c r="C197" s="118"/>
+      <c r="D197" s="118"/>
+      <c r="E197" s="118"/>
     </row>
     <row r="198" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="129" t="s">
+      <c r="A198" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="B198" s="131" t="s">
+      <c r="B198" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="C198" s="136">
+      <c r="C198" s="116">
         <v>5</v>
       </c>
-      <c r="D198" s="136"/>
-      <c r="E198" s="136"/>
+      <c r="D198" s="116"/>
+      <c r="E198" s="116"/>
     </row>
     <row r="199" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="130"/>
-      <c r="B199" s="132"/>
-      <c r="C199" s="137"/>
-      <c r="D199" s="137"/>
-      <c r="E199" s="137"/>
+      <c r="A199" s="124"/>
+      <c r="B199" s="126"/>
+      <c r="C199" s="118"/>
+      <c r="D199" s="118"/>
+      <c r="E199" s="118"/>
     </row>
     <row r="200" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="129" t="s">
+      <c r="A200" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="B200" s="131" t="s">
+      <c r="B200" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="C200" s="136">
+      <c r="C200" s="116">
         <v>3</v>
       </c>
-      <c r="D200" s="136"/>
-      <c r="E200" s="136"/>
+      <c r="D200" s="116"/>
+      <c r="E200" s="116"/>
     </row>
     <row r="201" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="130"/>
-      <c r="B201" s="132"/>
-      <c r="C201" s="137"/>
-      <c r="D201" s="137"/>
-      <c r="E201" s="137"/>
+      <c r="A201" s="124"/>
+      <c r="B201" s="126"/>
+      <c r="C201" s="118"/>
+      <c r="D201" s="118"/>
+      <c r="E201" s="118"/>
     </row>
     <row r="202" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="129" t="s">
+      <c r="A202" s="123" t="s">
         <v>119</v>
       </c>
-      <c r="B202" s="131" t="s">
+      <c r="B202" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="C202" s="136">
+      <c r="C202" s="116">
         <v>2</v>
       </c>
-      <c r="D202" s="136"/>
-      <c r="E202" s="136"/>
+      <c r="D202" s="116"/>
+      <c r="E202" s="116"/>
     </row>
     <row r="203" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="130"/>
-      <c r="B203" s="132"/>
-      <c r="C203" s="137"/>
-      <c r="D203" s="137"/>
-      <c r="E203" s="137"/>
+      <c r="A203" s="124"/>
+      <c r="B203" s="126"/>
+      <c r="C203" s="118"/>
+      <c r="D203" s="118"/>
+      <c r="E203" s="118"/>
     </row>
     <row r="204" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="129" t="s">
+      <c r="A204" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="B204" s="131" t="s">
+      <c r="B204" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="C204" s="136">
+      <c r="C204" s="116">
         <v>6</v>
       </c>
-      <c r="D204" s="136"/>
-      <c r="E204" s="136"/>
+      <c r="D204" s="116"/>
+      <c r="E204" s="116"/>
     </row>
     <row r="205" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="130"/>
-      <c r="B205" s="132"/>
-      <c r="C205" s="137"/>
-      <c r="D205" s="137"/>
-      <c r="E205" s="137"/>
+      <c r="A205" s="124"/>
+      <c r="B205" s="126"/>
+      <c r="C205" s="118"/>
+      <c r="D205" s="118"/>
+      <c r="E205" s="118"/>
     </row>
     <row r="206" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="129" t="s">
+      <c r="A206" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="B206" s="131" t="s">
+      <c r="B206" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="C206" s="136">
+      <c r="C206" s="116">
         <v>3</v>
       </c>
-      <c r="D206" s="136"/>
-      <c r="E206" s="136"/>
+      <c r="D206" s="116"/>
+      <c r="E206" s="116"/>
     </row>
     <row r="207" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="130"/>
-      <c r="B207" s="132"/>
-      <c r="C207" s="137"/>
-      <c r="D207" s="137"/>
-      <c r="E207" s="137"/>
+      <c r="A207" s="124"/>
+      <c r="B207" s="126"/>
+      <c r="C207" s="118"/>
+      <c r="D207" s="118"/>
+      <c r="E207" s="118"/>
     </row>
     <row r="208" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="129" t="s">
+      <c r="A208" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="B208" s="131" t="s">
+      <c r="B208" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="C208" s="136">
+      <c r="C208" s="116">
         <v>3</v>
       </c>
-      <c r="D208" s="136"/>
-      <c r="E208" s="136"/>
+      <c r="D208" s="116"/>
+      <c r="E208" s="116"/>
     </row>
     <row r="209" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A209" s="130"/>
-      <c r="B209" s="132"/>
-      <c r="C209" s="137"/>
-      <c r="D209" s="137"/>
-      <c r="E209" s="137"/>
+      <c r="A209" s="124"/>
+      <c r="B209" s="126"/>
+      <c r="C209" s="118"/>
+      <c r="D209" s="118"/>
+      <c r="E209" s="118"/>
     </row>
     <row r="210" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="129" t="s">
+      <c r="A210" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="B210" s="131" t="s">
+      <c r="B210" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="C210" s="136">
+      <c r="C210" s="116">
         <v>3</v>
       </c>
-      <c r="D210" s="136"/>
-      <c r="E210" s="136"/>
+      <c r="D210" s="116"/>
+      <c r="E210" s="116"/>
     </row>
     <row r="211" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A211" s="130"/>
-      <c r="B211" s="132"/>
-      <c r="C211" s="137"/>
-      <c r="D211" s="137"/>
-      <c r="E211" s="137"/>
+      <c r="A211" s="124"/>
+      <c r="B211" s="126"/>
+      <c r="C211" s="118"/>
+      <c r="D211" s="118"/>
+      <c r="E211" s="118"/>
     </row>
     <row r="212" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A212" s="113" t="s">
+      <c r="A212" s="127" t="s">
         <v>124</v>
       </c>
       <c r="B212" s="128"/>
       <c r="C212" s="128"/>
       <c r="D212" s="128"/>
-      <c r="E212" s="114"/>
+      <c r="E212" s="129"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A213" s="115" t="s">
+      <c r="A213" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="B213" s="115" t="s">
+      <c r="B213" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="C213" s="115" t="s">
+      <c r="C213" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="D213" s="115" t="s">
+      <c r="D213" s="130" t="s">
         <v>87</v>
       </c>
       <c r="E213" s="59" t="s">
@@ -6645,253 +6645,253 @@
       </c>
     </row>
     <row r="214" spans="1:5" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="116"/>
-      <c r="B214" s="116"/>
-      <c r="C214" s="116"/>
-      <c r="D214" s="116"/>
+      <c r="A214" s="131"/>
+      <c r="B214" s="131"/>
+      <c r="C214" s="131"/>
+      <c r="D214" s="131"/>
       <c r="E214" s="55" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="129" t="s">
+      <c r="A215" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="B215" s="131" t="s">
+      <c r="B215" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="C215" s="136">
+      <c r="C215" s="116">
         <v>2</v>
       </c>
-      <c r="D215" s="136"/>
-      <c r="E215" s="136"/>
+      <c r="D215" s="116"/>
+      <c r="E215" s="116"/>
     </row>
     <row r="216" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A216" s="130"/>
-      <c r="B216" s="132"/>
-      <c r="C216" s="137"/>
-      <c r="D216" s="137"/>
-      <c r="E216" s="137"/>
+      <c r="A216" s="124"/>
+      <c r="B216" s="126"/>
+      <c r="C216" s="118"/>
+      <c r="D216" s="118"/>
+      <c r="E216" s="118"/>
     </row>
     <row r="217" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="129" t="s">
+      <c r="A217" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="B217" s="131" t="s">
+      <c r="B217" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="C217" s="136">
+      <c r="C217" s="116">
         <v>3</v>
       </c>
-      <c r="D217" s="136"/>
-      <c r="E217" s="136"/>
+      <c r="D217" s="116"/>
+      <c r="E217" s="116"/>
     </row>
     <row r="218" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="130"/>
-      <c r="B218" s="132"/>
-      <c r="C218" s="137"/>
-      <c r="D218" s="137"/>
-      <c r="E218" s="137"/>
+      <c r="A218" s="124"/>
+      <c r="B218" s="126"/>
+      <c r="C218" s="118"/>
+      <c r="D218" s="118"/>
+      <c r="E218" s="118"/>
     </row>
     <row r="219" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="129" t="s">
+      <c r="A219" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="B219" s="131" t="s">
+      <c r="B219" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="C219" s="136">
+      <c r="C219" s="116">
         <v>3</v>
       </c>
-      <c r="D219" s="136"/>
-      <c r="E219" s="136"/>
+      <c r="D219" s="116"/>
+      <c r="E219" s="116"/>
     </row>
     <row r="220" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="130"/>
-      <c r="B220" s="132"/>
-      <c r="C220" s="137"/>
-      <c r="D220" s="137"/>
-      <c r="E220" s="137"/>
+      <c r="A220" s="124"/>
+      <c r="B220" s="126"/>
+      <c r="C220" s="118"/>
+      <c r="D220" s="118"/>
+      <c r="E220" s="118"/>
     </row>
     <row r="221" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="129" t="s">
+      <c r="A221" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="B221" s="131" t="s">
+      <c r="B221" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="C221" s="136">
+      <c r="C221" s="116">
         <v>3</v>
       </c>
-      <c r="D221" s="136"/>
-      <c r="E221" s="136"/>
+      <c r="D221" s="116"/>
+      <c r="E221" s="116"/>
     </row>
     <row r="222" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="130"/>
-      <c r="B222" s="132"/>
-      <c r="C222" s="137"/>
-      <c r="D222" s="137"/>
-      <c r="E222" s="137"/>
+      <c r="A222" s="124"/>
+      <c r="B222" s="126"/>
+      <c r="C222" s="118"/>
+      <c r="D222" s="118"/>
+      <c r="E222" s="118"/>
     </row>
     <row r="223" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="129" t="s">
+      <c r="A223" s="123" t="s">
         <v>131</v>
       </c>
-      <c r="B223" s="131" t="s">
+      <c r="B223" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="C223" s="136">
+      <c r="C223" s="116">
         <v>2</v>
       </c>
-      <c r="D223" s="136"/>
-      <c r="E223" s="136"/>
+      <c r="D223" s="116"/>
+      <c r="E223" s="116"/>
     </row>
     <row r="224" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="130"/>
-      <c r="B224" s="132"/>
-      <c r="C224" s="137"/>
-      <c r="D224" s="137"/>
-      <c r="E224" s="137"/>
+      <c r="A224" s="124"/>
+      <c r="B224" s="126"/>
+      <c r="C224" s="118"/>
+      <c r="D224" s="118"/>
+      <c r="E224" s="118"/>
     </row>
     <row r="225" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="129" t="s">
+      <c r="A225" s="123" t="s">
         <v>132</v>
       </c>
-      <c r="B225" s="131" t="s">
+      <c r="B225" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="C225" s="136">
+      <c r="C225" s="116">
         <v>2</v>
       </c>
-      <c r="D225" s="136"/>
-      <c r="E225" s="136"/>
+      <c r="D225" s="116"/>
+      <c r="E225" s="116"/>
     </row>
     <row r="226" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="130"/>
-      <c r="B226" s="132"/>
-      <c r="C226" s="137"/>
-      <c r="D226" s="137"/>
-      <c r="E226" s="137"/>
+      <c r="A226" s="124"/>
+      <c r="B226" s="126"/>
+      <c r="C226" s="118"/>
+      <c r="D226" s="118"/>
+      <c r="E226" s="118"/>
     </row>
     <row r="227" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="129" t="s">
+      <c r="A227" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="B227" s="131" t="s">
+      <c r="B227" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="C227" s="136">
+      <c r="C227" s="116">
         <v>2</v>
       </c>
-      <c r="D227" s="136"/>
-      <c r="E227" s="136"/>
+      <c r="D227" s="116"/>
+      <c r="E227" s="116"/>
     </row>
     <row r="228" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A228" s="130"/>
-      <c r="B228" s="132"/>
-      <c r="C228" s="137"/>
-      <c r="D228" s="137"/>
-      <c r="E228" s="137"/>
+      <c r="A228" s="124"/>
+      <c r="B228" s="126"/>
+      <c r="C228" s="118"/>
+      <c r="D228" s="118"/>
+      <c r="E228" s="118"/>
     </row>
     <row r="229" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="129" t="s">
+      <c r="A229" s="123" t="s">
         <v>135</v>
       </c>
-      <c r="B229" s="131" t="s">
+      <c r="B229" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="C229" s="136">
+      <c r="C229" s="116">
         <v>3</v>
       </c>
-      <c r="D229" s="136"/>
-      <c r="E229" s="136"/>
+      <c r="D229" s="116"/>
+      <c r="E229" s="116"/>
     </row>
     <row r="230" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="130"/>
-      <c r="B230" s="132"/>
-      <c r="C230" s="137"/>
-      <c r="D230" s="137"/>
-      <c r="E230" s="137"/>
+      <c r="A230" s="124"/>
+      <c r="B230" s="126"/>
+      <c r="C230" s="118"/>
+      <c r="D230" s="118"/>
+      <c r="E230" s="118"/>
     </row>
     <row r="231" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="129" t="s">
+      <c r="A231" s="123" t="s">
         <v>136</v>
       </c>
-      <c r="B231" s="131" t="s">
+      <c r="B231" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="C231" s="136">
+      <c r="C231" s="116">
         <v>2</v>
       </c>
-      <c r="D231" s="136"/>
-      <c r="E231" s="136"/>
+      <c r="D231" s="116"/>
+      <c r="E231" s="116"/>
     </row>
     <row r="232" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="130"/>
-      <c r="B232" s="132"/>
-      <c r="C232" s="137"/>
-      <c r="D232" s="137"/>
-      <c r="E232" s="137"/>
+      <c r="A232" s="124"/>
+      <c r="B232" s="126"/>
+      <c r="C232" s="118"/>
+      <c r="D232" s="118"/>
+      <c r="E232" s="118"/>
     </row>
     <row r="233" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="129" t="s">
+      <c r="A233" s="123" t="s">
         <v>137</v>
       </c>
-      <c r="B233" s="131" t="s">
+      <c r="B233" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="C233" s="136">
+      <c r="C233" s="116">
         <v>3</v>
       </c>
-      <c r="D233" s="136"/>
-      <c r="E233" s="136"/>
+      <c r="D233" s="116"/>
+      <c r="E233" s="116"/>
     </row>
     <row r="234" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="130"/>
-      <c r="B234" s="132"/>
-      <c r="C234" s="137"/>
-      <c r="D234" s="137"/>
-      <c r="E234" s="137"/>
+      <c r="A234" s="124"/>
+      <c r="B234" s="126"/>
+      <c r="C234" s="118"/>
+      <c r="D234" s="118"/>
+      <c r="E234" s="118"/>
     </row>
     <row r="235" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="129" t="s">
+      <c r="A235" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="B235" s="131" t="s">
+      <c r="B235" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="C235" s="136">
+      <c r="C235" s="116">
         <v>3</v>
       </c>
-      <c r="D235" s="136"/>
-      <c r="E235" s="136"/>
+      <c r="D235" s="116"/>
+      <c r="E235" s="116"/>
     </row>
     <row r="236" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="130"/>
-      <c r="B236" s="132"/>
-      <c r="C236" s="137"/>
-      <c r="D236" s="137"/>
-      <c r="E236" s="137"/>
+      <c r="A236" s="124"/>
+      <c r="B236" s="126"/>
+      <c r="C236" s="118"/>
+      <c r="D236" s="118"/>
+      <c r="E236" s="118"/>
     </row>
     <row r="237" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="129" t="s">
+      <c r="A237" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="B237" s="131" t="s">
+      <c r="B237" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="C237" s="136">
+      <c r="C237" s="116">
         <v>3</v>
       </c>
-      <c r="D237" s="136"/>
-      <c r="E237" s="136"/>
+      <c r="D237" s="116"/>
+      <c r="E237" s="116"/>
     </row>
     <row r="238" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="130"/>
-      <c r="B238" s="132"/>
-      <c r="C238" s="137"/>
-      <c r="D238" s="137"/>
-      <c r="E238" s="137"/>
+      <c r="A238" s="124"/>
+      <c r="B238" s="126"/>
+      <c r="C238" s="118"/>
+      <c r="D238" s="118"/>
+      <c r="E238" s="118"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="65"/>
@@ -6905,31 +6905,31 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A243" s="138" t="s">
+      <c r="A243" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="B243" s="136" t="s">
+      <c r="B243" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="C243" s="136" t="s">
+      <c r="C243" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="D243" s="142" t="s">
+      <c r="D243" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="E243" s="143"/>
+      <c r="E243" s="120"/>
     </row>
     <row r="244" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A244" s="139"/>
-      <c r="B244" s="141"/>
-      <c r="C244" s="141"/>
-      <c r="D244" s="144"/>
-      <c r="E244" s="145"/>
+      <c r="A244" s="114"/>
+      <c r="B244" s="117"/>
+      <c r="C244" s="117"/>
+      <c r="D244" s="121"/>
+      <c r="E244" s="122"/>
     </row>
     <row r="245" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="140"/>
-      <c r="B245" s="137"/>
-      <c r="C245" s="137"/>
+      <c r="A245" s="115"/>
+      <c r="B245" s="118"/>
+      <c r="C245" s="118"/>
       <c r="D245" s="44" t="s">
         <v>145</v>
       </c>
@@ -7035,160 +7035,6 @@
     </row>
   </sheetData>
   <mergeCells count="175">
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="B243:B245"/>
-    <mergeCell ref="C243:C245"/>
-    <mergeCell ref="D243:E244"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="E235:E236"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="B237:B238"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="D237:D238"/>
-    <mergeCell ref="E237:E238"/>
-    <mergeCell ref="A231:A232"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="E231:E232"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="B233:B234"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="E233:E234"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="E227:E228"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="E229:E230"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="E223:E224"/>
-    <mergeCell ref="A225:A226"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="D225:D226"/>
-    <mergeCell ref="E225:E226"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="E219:E220"/>
-    <mergeCell ref="A221:A222"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="E215:E216"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="D206:D207"/>
-    <mergeCell ref="E206:E207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="D186:D187"/>
-    <mergeCell ref="E186:E187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="E182:E183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="E175:E176"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A68:D68"/>
@@ -7210,6 +7056,160 @@
     <mergeCell ref="B169:B170"/>
     <mergeCell ref="C169:C170"/>
     <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="E175:E176"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="D186:D187"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="D206:D207"/>
+    <mergeCell ref="E206:E207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="E219:E220"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="E223:E224"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="E225:E226"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="E227:E228"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="E229:E230"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="E231:E232"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="E233:E234"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="B243:B245"/>
+    <mergeCell ref="C243:C245"/>
+    <mergeCell ref="D243:E244"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="E235:E236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="E237:E238"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7364,11 +7364,11 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="113" t="s">
+      <c r="A27" s="127" t="s">
         <v>149</v>
       </c>
       <c r="B27" s="128"/>
-      <c r="C27" s="114"/>
+      <c r="C27" s="129"/>
     </row>
     <row r="28" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="42" t="s">
@@ -7503,18 +7503,18 @@
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="75"/>
-      <c r="B51" s="113" t="s">
+      <c r="B51" s="127" t="s">
         <v>190</v>
       </c>
       <c r="C51" s="128"/>
       <c r="D51" s="128"/>
-      <c r="E51" s="114"/>
+      <c r="E51" s="129"/>
     </row>
     <row r="52" spans="1:5" s="77" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="148" t="s">
+      <c r="A52" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="149"/>
+      <c r="B52" s="151"/>
       <c r="C52" s="76" t="s">
         <v>223</v>
       </c>
@@ -7593,10 +7593,10 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="113" t="s">
+      <c r="A60" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="114"/>
+      <c r="B60" s="129"/>
     </row>
     <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="42" t="s">
@@ -7639,34 +7639,34 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="138" t="s">
+      <c r="A69" s="113" t="s">
         <v>229</v>
       </c>
-      <c r="B69" s="150" t="s">
+      <c r="B69" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="138" t="s">
+      <c r="C69" s="113" t="s">
         <v>230</v>
       </c>
       <c r="D69" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="E69" s="138" t="s">
+      <c r="E69" s="113" t="s">
         <v>233</v>
       </c>
-      <c r="F69" s="138" t="s">
+      <c r="F69" s="113" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="140"/>
-      <c r="B70" s="151"/>
-      <c r="C70" s="140"/>
+      <c r="A70" s="115"/>
+      <c r="B70" s="149"/>
+      <c r="C70" s="115"/>
       <c r="D70" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="E70" s="140"/>
-      <c r="F70" s="140"/>
+      <c r="E70" s="115"/>
+      <c r="F70" s="115"/>
     </row>
     <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="50"/>
@@ -7701,10 +7701,10 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="113" t="s">
+      <c r="A78" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="B78" s="114"/>
+      <c r="B78" s="129"/>
     </row>
     <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="42" t="s">
@@ -7788,16 +7788,16 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="115" t="s">
+      <c r="A95" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="B95" s="115" t="s">
+      <c r="B95" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="C95" s="115" t="s">
+      <c r="C95" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="D95" s="115" t="s">
+      <c r="D95" s="130" t="s">
         <v>87</v>
       </c>
       <c r="E95" s="54" t="s">
@@ -7805,93 +7805,93 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="116"/>
-      <c r="B96" s="116"/>
-      <c r="C96" s="116"/>
-      <c r="D96" s="116"/>
+      <c r="A96" s="131"/>
+      <c r="B96" s="131"/>
+      <c r="C96" s="131"/>
+      <c r="D96" s="131"/>
       <c r="E96" s="55" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="129" t="s">
+      <c r="A97" s="123" t="s">
         <v>101</v>
       </c>
       <c r="B97" s="60"/>
       <c r="C97" s="60"/>
-      <c r="D97" s="129"/>
-      <c r="E97" s="129"/>
+      <c r="D97" s="123"/>
+      <c r="E97" s="123"/>
     </row>
     <row r="98" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="130"/>
+      <c r="A98" s="124"/>
       <c r="B98" s="43" t="s">
         <v>236</v>
       </c>
       <c r="C98" s="52">
         <v>4</v>
       </c>
-      <c r="D98" s="130"/>
-      <c r="E98" s="130"/>
+      <c r="D98" s="124"/>
+      <c r="E98" s="124"/>
     </row>
     <row r="99" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="129" t="s">
+      <c r="A99" s="123" t="s">
         <v>237</v>
       </c>
-      <c r="B99" s="129" t="s">
+      <c r="B99" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="C99" s="131">
+      <c r="C99" s="125">
         <v>1</v>
       </c>
-      <c r="D99" s="131"/>
-      <c r="E99" s="129"/>
+      <c r="D99" s="125"/>
+      <c r="E99" s="123"/>
     </row>
     <row r="100" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="130"/>
-      <c r="B100" s="130"/>
-      <c r="C100" s="132"/>
-      <c r="D100" s="132"/>
-      <c r="E100" s="130"/>
+      <c r="A100" s="124"/>
+      <c r="B100" s="124"/>
+      <c r="C100" s="126"/>
+      <c r="D100" s="126"/>
+      <c r="E100" s="124"/>
     </row>
     <row r="101" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="129" t="s">
+      <c r="A101" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="B101" s="129" t="s">
+      <c r="B101" s="123" t="s">
         <v>110</v>
       </c>
       <c r="C101" s="58"/>
-      <c r="D101" s="131"/>
-      <c r="E101" s="129"/>
+      <c r="D101" s="125"/>
+      <c r="E101" s="123"/>
     </row>
     <row r="102" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="130"/>
-      <c r="B102" s="130"/>
+      <c r="A102" s="124"/>
+      <c r="B102" s="124"/>
       <c r="C102" s="61">
         <v>1</v>
       </c>
-      <c r="D102" s="132"/>
-      <c r="E102" s="130"/>
+      <c r="D102" s="126"/>
+      <c r="E102" s="124"/>
     </row>
     <row r="103" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="129" t="s">
+      <c r="A103" s="123" t="s">
         <v>238</v>
       </c>
-      <c r="B103" s="129" t="s">
+      <c r="B103" s="123" t="s">
         <v>112</v>
       </c>
       <c r="C103" s="58"/>
-      <c r="D103" s="131"/>
-      <c r="E103" s="129"/>
+      <c r="D103" s="125"/>
+      <c r="E103" s="123"/>
     </row>
     <row r="104" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="130"/>
-      <c r="B104" s="130"/>
+      <c r="A104" s="124"/>
+      <c r="B104" s="124"/>
       <c r="C104" s="61">
         <v>1</v>
       </c>
-      <c r="D104" s="132"/>
-      <c r="E104" s="130"/>
+      <c r="D104" s="126"/>
+      <c r="E104" s="124"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="67"/>
@@ -7907,38 +7907,38 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="138" t="s">
+      <c r="A109" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="B109" s="136" t="s">
+      <c r="B109" s="116" t="s">
         <v>241</v>
       </c>
-      <c r="C109" s="142" t="s">
+      <c r="C109" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="D109" s="143"/>
+      <c r="D109" s="120"/>
     </row>
     <row r="110" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="139"/>
-      <c r="B110" s="141"/>
-      <c r="C110" s="144"/>
-      <c r="D110" s="145"/>
+      <c r="A110" s="114"/>
+      <c r="B110" s="117"/>
+      <c r="C110" s="121"/>
+      <c r="D110" s="122"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="139"/>
-      <c r="B111" s="141"/>
-      <c r="C111" s="138" t="s">
+      <c r="A111" s="114"/>
+      <c r="B111" s="117"/>
+      <c r="C111" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="D111" s="138" t="s">
+      <c r="D111" s="113" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="140"/>
-      <c r="B112" s="137"/>
-      <c r="C112" s="140"/>
-      <c r="D112" s="140"/>
+      <c r="A112" s="115"/>
+      <c r="B112" s="118"/>
+      <c r="C112" s="115"/>
+      <c r="D112" s="115"/>
     </row>
     <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="41" t="s">
@@ -8004,11 +8004,32 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="A101:A102"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="D101:D102"/>
@@ -8017,32 +8038,11 @@
     <mergeCell ref="B103:B104"/>
     <mergeCell ref="D103:D104"/>
     <mergeCell ref="E103:E104"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8196,11 +8196,11 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="113" t="s">
+      <c r="A26" s="127" t="s">
         <v>149</v>
       </c>
       <c r="B26" s="128"/>
-      <c r="C26" s="114"/>
+      <c r="C26" s="129"/>
     </row>
     <row r="27" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="42" t="s">
@@ -8320,18 +8320,18 @@
     </row>
     <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="75"/>
-      <c r="B47" s="113" t="s">
+      <c r="B47" s="127" t="s">
         <v>190</v>
       </c>
       <c r="C47" s="128"/>
       <c r="D47" s="128"/>
-      <c r="E47" s="114"/>
+      <c r="E47" s="129"/>
     </row>
     <row r="48" spans="1:5" s="77" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="148" t="s">
+      <c r="A48" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="149"/>
+      <c r="B48" s="151"/>
       <c r="C48" s="76" t="s">
         <v>142</v>
       </c>
@@ -8384,10 +8384,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="113" t="s">
+      <c r="A54" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="114"/>
+      <c r="B54" s="129"/>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="42" t="s">
@@ -8424,34 +8424,34 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="138" t="s">
+      <c r="A62" s="113" t="s">
         <v>229</v>
       </c>
-      <c r="B62" s="150" t="s">
+      <c r="B62" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="138" t="s">
+      <c r="C62" s="113" t="s">
         <v>230</v>
       </c>
       <c r="D62" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="E62" s="138" t="s">
+      <c r="E62" s="113" t="s">
         <v>233</v>
       </c>
-      <c r="F62" s="138" t="s">
+      <c r="F62" s="113" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="140"/>
-      <c r="B63" s="151"/>
-      <c r="C63" s="140"/>
+      <c r="A63" s="115"/>
+      <c r="B63" s="149"/>
+      <c r="C63" s="115"/>
       <c r="D63" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="E63" s="140"/>
-      <c r="F63" s="140"/>
+      <c r="E63" s="115"/>
+      <c r="F63" s="115"/>
     </row>
     <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="50"/>
@@ -8483,10 +8483,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="113" t="s">
+      <c r="A70" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="114"/>
+      <c r="B70" s="129"/>
     </row>
     <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="42" t="s">
@@ -8570,16 +8570,16 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="115" t="s">
+      <c r="A87" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="B87" s="115" t="s">
+      <c r="B87" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="115" t="s">
+      <c r="C87" s="130" t="s">
         <v>248</v>
       </c>
-      <c r="D87" s="115" t="s">
+      <c r="D87" s="130" t="s">
         <v>87</v>
       </c>
       <c r="E87" s="54" t="s">
@@ -8587,73 +8587,73 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="116"/>
-      <c r="B88" s="116"/>
-      <c r="C88" s="116"/>
-      <c r="D88" s="116"/>
+      <c r="A88" s="131"/>
+      <c r="B88" s="131"/>
+      <c r="C88" s="131"/>
+      <c r="D88" s="131"/>
       <c r="E88" s="55" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="129" t="s">
+      <c r="A89" s="123" t="s">
         <v>101</v>
       </c>
       <c r="B89" s="60"/>
       <c r="C89" s="60"/>
-      <c r="D89" s="129"/>
-      <c r="E89" s="129"/>
+      <c r="D89" s="123"/>
+      <c r="E89" s="123"/>
     </row>
     <row r="90" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="130"/>
+      <c r="A90" s="124"/>
       <c r="B90" s="43" t="s">
         <v>249</v>
       </c>
       <c r="C90" s="52">
         <v>10</v>
       </c>
-      <c r="D90" s="130"/>
-      <c r="E90" s="130"/>
+      <c r="D90" s="124"/>
+      <c r="E90" s="124"/>
     </row>
     <row r="91" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="129" t="s">
+      <c r="A91" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="B91" s="129" t="s">
+      <c r="B91" s="123" t="s">
         <v>110</v>
       </c>
       <c r="C91" s="58"/>
-      <c r="D91" s="131"/>
-      <c r="E91" s="129"/>
+      <c r="D91" s="125"/>
+      <c r="E91" s="123"/>
     </row>
     <row r="92" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="130"/>
-      <c r="B92" s="130"/>
+      <c r="A92" s="124"/>
+      <c r="B92" s="124"/>
       <c r="C92" s="61">
         <v>1</v>
       </c>
-      <c r="D92" s="132"/>
-      <c r="E92" s="130"/>
+      <c r="D92" s="126"/>
+      <c r="E92" s="124"/>
     </row>
     <row r="93" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="129" t="s">
+      <c r="A93" s="123" t="s">
         <v>238</v>
       </c>
-      <c r="B93" s="129" t="s">
+      <c r="B93" s="123" t="s">
         <v>112</v>
       </c>
       <c r="C93" s="58"/>
-      <c r="D93" s="131"/>
-      <c r="E93" s="129"/>
+      <c r="D93" s="125"/>
+      <c r="E93" s="123"/>
     </row>
     <row r="94" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="130"/>
-      <c r="B94" s="130"/>
+      <c r="A94" s="124"/>
+      <c r="B94" s="124"/>
       <c r="C94" s="61">
         <v>1</v>
       </c>
-      <c r="D94" s="132"/>
-      <c r="E94" s="130"/>
+      <c r="D94" s="126"/>
+      <c r="E94" s="124"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="67" t="s">
@@ -8666,44 +8666,44 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="138" t="s">
+      <c r="A99" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="B99" s="136" t="s">
+      <c r="B99" s="116" t="s">
         <v>250</v>
       </c>
-      <c r="C99" s="136" t="s">
+      <c r="C99" s="116" t="s">
         <v>251</v>
       </c>
-      <c r="D99" s="142" t="s">
+      <c r="D99" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="E99" s="143"/>
+      <c r="E99" s="120"/>
     </row>
     <row r="100" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="139"/>
-      <c r="B100" s="141"/>
-      <c r="C100" s="141"/>
-      <c r="D100" s="144"/>
-      <c r="E100" s="145"/>
+      <c r="A100" s="114"/>
+      <c r="B100" s="117"/>
+      <c r="C100" s="117"/>
+      <c r="D100" s="121"/>
+      <c r="E100" s="122"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="139"/>
-      <c r="B101" s="141"/>
-      <c r="C101" s="141"/>
-      <c r="D101" s="138" t="s">
+      <c r="A101" s="114"/>
+      <c r="B101" s="117"/>
+      <c r="C101" s="117"/>
+      <c r="D101" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="E101" s="138" t="s">
+      <c r="E101" s="113" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="140"/>
-      <c r="B102" s="137"/>
-      <c r="C102" s="137"/>
-      <c r="D102" s="140"/>
-      <c r="E102" s="140"/>
+      <c r="A102" s="115"/>
+      <c r="B102" s="118"/>
+      <c r="C102" s="118"/>
+      <c r="D102" s="115"/>
+      <c r="E102" s="115"/>
     </row>
     <row r="103" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="41" t="s">
@@ -8786,12 +8786,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="D99:E100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="E62:E63"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="A93:A94"/>
     <mergeCell ref="B93:B94"/>
@@ -8808,17 +8813,12 @@
     <mergeCell ref="B91:B92"/>
     <mergeCell ref="D91:D92"/>
     <mergeCell ref="E91:E92"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="D99:E100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8972,12 +8972,12 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="113" t="s">
+      <c r="A26" s="127" t="s">
         <v>193</v>
       </c>
       <c r="B26" s="128"/>
       <c r="C26" s="128"/>
-      <c r="D26" s="114"/>
+      <c r="D26" s="129"/>
     </row>
     <row r="27" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="42" t="s">
@@ -9044,11 +9044,11 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="113" t="s">
+      <c r="A39" s="127" t="s">
         <v>149</v>
       </c>
       <c r="B39" s="128"/>
-      <c r="C39" s="114"/>
+      <c r="C39" s="129"/>
     </row>
     <row r="40" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="42" t="s">
@@ -9175,12 +9175,12 @@
     </row>
     <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="75"/>
-      <c r="B61" s="113" t="s">
+      <c r="B61" s="127" t="s">
         <v>190</v>
       </c>
       <c r="C61" s="128"/>
       <c r="D61" s="128"/>
-      <c r="E61" s="114"/>
+      <c r="E61" s="129"/>
     </row>
     <row r="62" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="152" t="s">
@@ -9239,10 +9239,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="113" t="s">
+      <c r="A68" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="114"/>
+      <c r="B68" s="129"/>
     </row>
     <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="42" t="s">
@@ -9279,34 +9279,34 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="138" t="s">
+      <c r="A76" s="113" t="s">
         <v>229</v>
       </c>
-      <c r="B76" s="150" t="s">
+      <c r="B76" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="138" t="s">
+      <c r="C76" s="113" t="s">
         <v>230</v>
       </c>
       <c r="D76" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="E76" s="138" t="s">
+      <c r="E76" s="113" t="s">
         <v>233</v>
       </c>
-      <c r="F76" s="138" t="s">
+      <c r="F76" s="113" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="140"/>
-      <c r="B77" s="151"/>
-      <c r="C77" s="140"/>
+      <c r="A77" s="115"/>
+      <c r="B77" s="149"/>
+      <c r="C77" s="115"/>
       <c r="D77" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="E77" s="140"/>
-      <c r="F77" s="140"/>
+      <c r="E77" s="115"/>
+      <c r="F77" s="115"/>
     </row>
     <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="50"/>
@@ -9338,10 +9338,10 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="113" t="s">
+      <c r="A84" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="B84" s="114"/>
+      <c r="B84" s="129"/>
     </row>
     <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="42" t="s">
@@ -9434,16 +9434,16 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="115" t="s">
+      <c r="A102" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="B102" s="115" t="s">
+      <c r="B102" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="C102" s="115" t="s">
+      <c r="C102" s="130" t="s">
         <v>248</v>
       </c>
-      <c r="D102" s="115" t="s">
+      <c r="D102" s="130" t="s">
         <v>87</v>
       </c>
       <c r="E102" s="54" t="s">
@@ -9451,137 +9451,137 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="116"/>
-      <c r="B103" s="116"/>
-      <c r="C103" s="116"/>
-      <c r="D103" s="116"/>
+      <c r="A103" s="131"/>
+      <c r="B103" s="131"/>
+      <c r="C103" s="131"/>
+      <c r="D103" s="131"/>
       <c r="E103" s="55" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="129" t="s">
+      <c r="A104" s="123" t="s">
         <v>101</v>
       </c>
       <c r="B104" s="60"/>
       <c r="C104" s="60"/>
-      <c r="D104" s="129"/>
-      <c r="E104" s="129"/>
+      <c r="D104" s="123"/>
+      <c r="E104" s="123"/>
     </row>
     <row r="105" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="130"/>
+      <c r="A105" s="124"/>
       <c r="B105" s="43" t="s">
         <v>236</v>
       </c>
       <c r="C105" s="52">
         <v>4</v>
       </c>
-      <c r="D105" s="130"/>
-      <c r="E105" s="130"/>
+      <c r="D105" s="124"/>
+      <c r="E105" s="124"/>
     </row>
     <row r="106" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="129" t="s">
+      <c r="A106" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="B106" s="129" t="s">
+      <c r="B106" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="C106" s="131">
+      <c r="C106" s="125">
         <v>1</v>
       </c>
-      <c r="D106" s="129"/>
-      <c r="E106" s="129"/>
+      <c r="D106" s="123"/>
+      <c r="E106" s="123"/>
     </row>
     <row r="107" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="130"/>
-      <c r="B107" s="130"/>
-      <c r="C107" s="132"/>
-      <c r="D107" s="130"/>
-      <c r="E107" s="130"/>
+      <c r="A107" s="124"/>
+      <c r="B107" s="124"/>
+      <c r="C107" s="126"/>
+      <c r="D107" s="124"/>
+      <c r="E107" s="124"/>
     </row>
     <row r="108" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="129" t="s">
+      <c r="A108" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="B108" s="129" t="s">
+      <c r="B108" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="131">
+      <c r="C108" s="125">
         <v>1</v>
       </c>
-      <c r="D108" s="131"/>
-      <c r="E108" s="129"/>
+      <c r="D108" s="125"/>
+      <c r="E108" s="123"/>
     </row>
     <row r="109" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="130"/>
-      <c r="B109" s="130"/>
-      <c r="C109" s="132"/>
-      <c r="D109" s="132"/>
-      <c r="E109" s="130"/>
+      <c r="A109" s="124"/>
+      <c r="B109" s="124"/>
+      <c r="C109" s="126"/>
+      <c r="D109" s="126"/>
+      <c r="E109" s="124"/>
     </row>
     <row r="110" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="129" t="s">
+      <c r="A110" s="123" t="s">
         <v>237</v>
       </c>
-      <c r="B110" s="129" t="s">
+      <c r="B110" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="C110" s="131">
+      <c r="C110" s="125">
         <v>1</v>
       </c>
-      <c r="D110" s="131"/>
-      <c r="E110" s="129"/>
+      <c r="D110" s="125"/>
+      <c r="E110" s="123"/>
     </row>
     <row r="111" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="130"/>
-      <c r="B111" s="130"/>
-      <c r="C111" s="132"/>
-      <c r="D111" s="132"/>
-      <c r="E111" s="130"/>
+      <c r="A111" s="124"/>
+      <c r="B111" s="124"/>
+      <c r="C111" s="126"/>
+      <c r="D111" s="126"/>
+      <c r="E111" s="124"/>
     </row>
     <row r="112" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="129" t="s">
+      <c r="A112" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="B112" s="129" t="s">
+      <c r="B112" s="123" t="s">
         <v>110</v>
       </c>
       <c r="C112" s="58"/>
       <c r="D112" s="58"/>
-      <c r="E112" s="129"/>
+      <c r="E112" s="123"/>
     </row>
     <row r="113" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="130"/>
-      <c r="B113" s="130"/>
+      <c r="A113" s="124"/>
+      <c r="B113" s="124"/>
       <c r="C113" s="61">
         <v>1</v>
       </c>
       <c r="D113" s="61">
         <v>1</v>
       </c>
-      <c r="E113" s="130"/>
+      <c r="E113" s="124"/>
     </row>
     <row r="114" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="129" t="s">
+      <c r="A114" s="123" t="s">
         <v>238</v>
       </c>
-      <c r="B114" s="129" t="s">
+      <c r="B114" s="123" t="s">
         <v>112</v>
       </c>
       <c r="C114" s="58"/>
       <c r="D114" s="58"/>
-      <c r="E114" s="129"/>
+      <c r="E114" s="123"/>
     </row>
     <row r="115" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="130"/>
-      <c r="B115" s="130"/>
+      <c r="A115" s="124"/>
+      <c r="B115" s="124"/>
       <c r="C115" s="61">
         <v>1</v>
       </c>
       <c r="D115" s="61">
         <v>1</v>
       </c>
-      <c r="E115" s="130"/>
+      <c r="E115" s="124"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="67"/>
@@ -9600,38 +9600,38 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="138" t="s">
+      <c r="A120" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="B120" s="136" t="s">
+      <c r="B120" s="116" t="s">
         <v>241</v>
       </c>
-      <c r="C120" s="142" t="s">
+      <c r="C120" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="D120" s="143"/>
+      <c r="D120" s="120"/>
     </row>
     <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="139"/>
-      <c r="B121" s="141"/>
-      <c r="C121" s="144"/>
-      <c r="D121" s="145"/>
+      <c r="A121" s="114"/>
+      <c r="B121" s="117"/>
+      <c r="C121" s="121"/>
+      <c r="D121" s="122"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="139"/>
-      <c r="B122" s="141"/>
-      <c r="C122" s="138" t="s">
+      <c r="A122" s="114"/>
+      <c r="B122" s="117"/>
+      <c r="C122" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="D122" s="138" t="s">
+      <c r="D122" s="113" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="140"/>
-      <c r="B123" s="137"/>
-      <c r="C123" s="140"/>
-      <c r="D123" s="140"/>
+      <c r="A123" s="115"/>
+      <c r="B123" s="118"/>
+      <c r="C123" s="115"/>
+      <c r="D123" s="115"/>
     </row>
     <row r="124" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="41" t="s">
@@ -9704,40 +9704,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="C120:D121"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
     <mergeCell ref="F76:F77"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A39:C39"/>
@@ -9750,6 +9716,40 @@
     <mergeCell ref="B76:B77"/>
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="C120:D121"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9810,12 +9810,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="127" t="s">
         <v>154</v>
       </c>
       <c r="B16" s="128"/>
       <c r="C16" s="128"/>
-      <c r="D16" s="114"/>
+      <c r="D16" s="129"/>
     </row>
     <row r="17" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="42" t="s">
@@ -9970,12 +9970,12 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="113" t="s">
+      <c r="A40" s="127" t="s">
         <v>193</v>
       </c>
       <c r="B40" s="128"/>
       <c r="C40" s="128"/>
-      <c r="D40" s="114"/>
+      <c r="D40" s="129"/>
     </row>
     <row r="41" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="42" t="s">
@@ -10039,11 +10039,11 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="113" t="s">
+      <c r="A52" s="127" t="s">
         <v>149</v>
       </c>
       <c r="B52" s="128"/>
-      <c r="C52" s="114"/>
+      <c r="C52" s="129"/>
     </row>
     <row r="53" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="42" t="s">
@@ -10176,11 +10176,11 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="113" t="s">
+      <c r="A75" s="127" t="s">
         <v>190</v>
       </c>
       <c r="B75" s="128"/>
-      <c r="C75" s="114"/>
+      <c r="C75" s="129"/>
     </row>
     <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="71" t="s">
@@ -10227,10 +10227,10 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="113" t="s">
+      <c r="A84" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="B84" s="114"/>
+      <c r="B84" s="129"/>
     </row>
     <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="42" t="s">
@@ -10312,10 +10312,10 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="113" t="s">
+      <c r="A101" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="B101" s="114"/>
+      <c r="B101" s="129"/>
     </row>
     <row r="102" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="42" t="s">
@@ -10428,38 +10428,38 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="138" t="s">
+      <c r="A123" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="B123" s="136" t="s">
+      <c r="B123" s="116" t="s">
         <v>241</v>
       </c>
-      <c r="C123" s="142" t="s">
+      <c r="C123" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="D123" s="143"/>
+      <c r="D123" s="120"/>
     </row>
     <row r="124" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="139"/>
-      <c r="B124" s="141"/>
-      <c r="C124" s="144"/>
-      <c r="D124" s="145"/>
+      <c r="A124" s="114"/>
+      <c r="B124" s="117"/>
+      <c r="C124" s="121"/>
+      <c r="D124" s="122"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="139"/>
-      <c r="B125" s="141"/>
-      <c r="C125" s="138" t="s">
+      <c r="A125" s="114"/>
+      <c r="B125" s="117"/>
+      <c r="C125" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="D125" s="138" t="s">
+      <c r="D125" s="113" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="140"/>
-      <c r="B126" s="137"/>
-      <c r="C126" s="140"/>
-      <c r="D126" s="140"/>
+      <c r="A126" s="115"/>
+      <c r="B126" s="118"/>
+      <c r="C126" s="115"/>
+      <c r="D126" s="115"/>
     </row>
     <row r="127" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="41" t="s">
@@ -10542,17 +10542,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="C123:D124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A75:C75"/>
     <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="C123:D124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
